--- a/DataExcel/TransferNobuAccount.xlsx
+++ b/DataExcel/TransferNobuAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nobu\main\Android-Automation\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6572A0A-A8C7-401A-9811-6E062C1592ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889164F3-2887-4940-89EE-8CFCB73B69EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6427804E-2AB9-E041-9637-7FB925D94670}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
